--- a/utils/localisation_script/excel_to_json/gu/q.xlsx
+++ b/utils/localisation_script/excel_to_json/gu/q.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/gu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/gu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4A825-E1F1-7B42-B449-696C8525DD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E78A20-8A3D-AB4D-A1E3-3FB2C6BFFA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delta 2" sheetId="7" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <t>આપના ભાષા સમર્થકના દરજ્જા</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gujarati</t>
+    <t>Gujarati</t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
   </sheetPr>
   <dimension ref="A2:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
